--- a/app/data/map_champions.xlsx
+++ b/app/data/map_champions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>Bandle City</t>
   </si>
@@ -237,6 +237,33 @@
   </si>
   <si>
     <t>Zac</t>
+  </si>
+  <si>
+    <t>mapid</t>
+  </si>
+  <si>
+    <t>champid</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>champname</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>mapname</t>
+  </si>
+  <si>
+    <t>ipcost</t>
+  </si>
+  <si>
+    <t>inverse ip cost</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -554,2002 +581,2032 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>37</v>
-      </c>
-      <c r="C1">
-        <f>ROUND(H1,0)</f>
-        <v>13</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>3150</v>
-      </c>
-      <c r="G1">
-        <v>3150</v>
-      </c>
-      <c r="H1">
-        <f>100*G1/24000</f>
-        <v>13.125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <f>C1+ROUND(H2,0)</f>
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
+        <f>ROUND(I2,0)</f>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>3150</v>
-      </c>
       <c r="G2">
         <v>3150</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H11" si="0">100*G2/24000</f>
+        <v>3150</v>
+      </c>
+      <c r="I2">
+        <f>100*H2/24000</f>
         <v>13.125</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <f>C2+ROUND(I3,0)</f>
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>3150</v>
+      </c>
+      <c r="H3">
+        <v>3150</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="0">100*H3/24000</f>
+        <v>13.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>43</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C7" si="1">C2+ROUND(H3,0)</f>
+      <c r="C4">
+        <f t="shared" ref="C4:C8" si="1">C3+ROUND(I4,0)</f>
         <v>52</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>450</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>6300</v>
       </c>
-      <c r="H3">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>26.25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>75</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>4800</v>
-      </c>
-      <c r="G4">
-        <v>1350</v>
-      </c>
-      <c r="H4">
+      <c r="G5">
+        <v>4800</v>
+      </c>
+      <c r="H5">
+        <v>1350</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" t="s">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>1350</v>
-      </c>
-      <c r="G5">
-        <v>4800</v>
-      </c>
-      <c r="H5">
+      <c r="G6">
+        <v>1350</v>
+      </c>
+      <c r="H6">
+        <v>4800</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>1350</v>
-      </c>
-      <c r="G6">
-        <v>4800</v>
-      </c>
-      <c r="H6">
+      <c r="G7">
+        <v>1350</v>
+      </c>
+      <c r="H7">
+        <v>4800</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>92</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>6300</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>450</v>
       </c>
-      <c r="H7">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>1.875</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>87</v>
-      </c>
-      <c r="C8">
-        <f>ROUND(H8,0)</f>
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>4800</v>
-      </c>
-      <c r="G8">
-        <v>1350</v>
-      </c>
-      <c r="H8">
-        <f>100*G8/9000</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C9">
-        <f>C8+ROUND(H9,0)</f>
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <f>ROUND(I9,0)</f>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="F9">
-        <v>3150</v>
-      </c>
       <c r="G9">
-        <v>3150</v>
+        <v>4800</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H23" si="2">100*G9/9000</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+      <c r="I9">
+        <f>100*H9/9000</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f>C9+ROUND(I10,0)</f>
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>3150</v>
+      </c>
+      <c r="H10">
+        <v>3150</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I12" si="2">100*H10/9000</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>85</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C11" si="3">C9+ROUND(H10,0)</f>
+      <c r="C11">
+        <f t="shared" ref="C11:C12" si="3">C10+ROUND(I11,0)</f>
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="F10">
-        <v>4800</v>
-      </c>
-      <c r="G10">
-        <v>1350</v>
-      </c>
-      <c r="H10">
+      <c r="G11">
+        <v>4800</v>
+      </c>
+      <c r="H11">
+        <v>1350</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>59</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="F11">
-        <v>3150</v>
-      </c>
-      <c r="G11">
-        <v>3150</v>
-      </c>
-      <c r="H11">
+      <c r="G12">
+        <v>3150</v>
+      </c>
+      <c r="H12">
+        <v>3150</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>94</v>
-      </c>
-      <c r="C12">
-        <f>ROUNDUP(H12,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>6300</v>
-      </c>
-      <c r="G12">
-        <v>450</v>
-      </c>
-      <c r="H12">
-        <f>100*G12/32100</f>
-        <v>1.4018691588785046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C13">
-        <f>C12+ROUND(H13,0)</f>
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
+        <f>ROUNDUP(I13,0)</f>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="F13">
-        <v>4800</v>
-      </c>
       <c r="G13">
-        <v>1350</v>
+        <v>6300</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H35" si="4">100*G13/32100</f>
-        <v>4.2056074766355138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="I13">
+        <f>100*H13/32100</f>
+        <v>1.4018691588785046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <f>C13+ROUND(I14,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>4800</v>
+      </c>
+      <c r="H14">
+        <v>1350</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I24" si="4">100*H14/32100</f>
+        <v>4.2056074766355138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>50</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:C23" si="5">C13+ROUND(H14,0)</f>
+      <c r="C15">
+        <f t="shared" ref="C15:C23" si="5">C14+ROUND(I15,0)</f>
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="G15">
         <v>450</v>
       </c>
-      <c r="G14">
+      <c r="H15">
         <v>6300</v>
       </c>
-      <c r="H14">
+      <c r="I15">
         <f t="shared" si="4"/>
         <v>19.626168224299064</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>71</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="F15">
-        <v>4800</v>
-      </c>
-      <c r="G15">
-        <v>1350</v>
-      </c>
-      <c r="H15">
+      <c r="G16">
+        <v>4800</v>
+      </c>
+      <c r="H16">
+        <v>1350</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="4"/>
         <v>4.2056074766355138</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>3</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>115</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F17" t="s">
         <v>13</v>
       </c>
-      <c r="F16">
+      <c r="G17">
         <v>6300</v>
       </c>
-      <c r="G16">
+      <c r="H17">
         <v>450</v>
       </c>
-      <c r="H16">
+      <c r="I17">
         <f t="shared" si="4"/>
         <v>1.4018691588785046</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>62</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F18" t="s">
         <v>13</v>
       </c>
-      <c r="F17">
-        <v>1350</v>
-      </c>
-      <c r="G17">
-        <v>4800</v>
-      </c>
-      <c r="H17">
+      <c r="G18">
+        <v>1350</v>
+      </c>
+      <c r="H18">
+        <v>4800</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="4"/>
         <v>14.953271028037383</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>43</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>13</v>
       </c>
-      <c r="F18">
+      <c r="G19">
         <v>450</v>
       </c>
-      <c r="G18">
+      <c r="H19">
         <v>6300</v>
       </c>
-      <c r="H18">
+      <c r="I19">
         <f t="shared" si="4"/>
         <v>19.626168224299064</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>111</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>20</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="F19">
+      <c r="G20">
         <v>6300</v>
       </c>
-      <c r="G19">
+      <c r="H20">
         <v>450</v>
       </c>
-      <c r="H19">
+      <c r="I20">
         <f t="shared" si="4"/>
         <v>1.4018691588785046</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>86</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F21" t="s">
         <v>13</v>
       </c>
-      <c r="F20">
-        <v>4800</v>
-      </c>
-      <c r="G20">
-        <v>1350</v>
-      </c>
-      <c r="H20">
+      <c r="G21">
+        <v>4800</v>
+      </c>
+      <c r="H21">
+        <v>1350</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="4"/>
         <v>4.2056074766355138</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>60</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
         <v>22</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" t="s">
         <v>13</v>
       </c>
-      <c r="F21">
-        <v>3150</v>
-      </c>
-      <c r="G21">
-        <v>3150</v>
-      </c>
-      <c r="H21">
+      <c r="G22">
+        <v>3150</v>
+      </c>
+      <c r="H22">
+        <v>3150</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="4"/>
         <v>9.8130841121495322</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>76</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F23" t="s">
         <v>13</v>
       </c>
-      <c r="F22">
-        <v>4800</v>
-      </c>
-      <c r="G22">
-        <v>1350</v>
-      </c>
-      <c r="H22">
+      <c r="G23">
+        <v>4800</v>
+      </c>
+      <c r="H23">
+        <v>1350</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="4"/>
         <v>4.2056074766355138</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>3</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>55</v>
       </c>
-      <c r="C23">
-        <f>C22+ROUND(H23,0)</f>
+      <c r="C24">
+        <f>C23+ROUND(I24,0)</f>
         <v>100</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E24" t="s">
         <v>24</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F24" t="s">
         <v>13</v>
       </c>
-      <c r="F23">
-        <v>1350</v>
-      </c>
-      <c r="G23">
-        <v>4800</v>
-      </c>
-      <c r="H23">
+      <c r="G24">
+        <v>1350</v>
+      </c>
+      <c r="H24">
+        <v>4800</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="4"/>
         <v>14.953271028037383</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <f>ROUNDUP(H24,0)</f>
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24">
-        <v>3150</v>
-      </c>
-      <c r="G24">
-        <v>3150</v>
-      </c>
-      <c r="H24">
-        <f>100*G24/34800</f>
-        <v>9.0517241379310338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <f>C24+ROUND(H25,0)</f>
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
+        <f>ROUNDUP(I25,0)</f>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="F25">
-        <v>450</v>
-      </c>
       <c r="G25">
-        <v>6300</v>
+        <v>3150</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H42" si="6">100*G25/34800</f>
-        <v>18.103448275862068</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3150</v>
+      </c>
+      <c r="I25">
+        <f>100*H25/34800</f>
+        <v>9.0517241379310338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C35" si="7">C25+ROUND(H26,0)</f>
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
+        <f>C25+ROUND(I26,0)</f>
         <v>28</v>
       </c>
       <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
         <v>25</v>
-      </c>
-      <c r="F26">
-        <v>6300</v>
       </c>
       <c r="G26">
         <v>450</v>
       </c>
       <c r="H26">
+        <v>6300</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I37" si="6">100*H26/34800</f>
+        <v>18.103448275862068</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>119</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C36" si="7">C26+ROUND(I27,0)</f>
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>6300</v>
+      </c>
+      <c r="H27">
+        <v>450</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="6"/>
         <v>1.2931034482758621</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>44</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F28" t="s">
         <v>25</v>
       </c>
-      <c r="F27">
-        <v>3150</v>
-      </c>
-      <c r="G27">
-        <v>3150</v>
-      </c>
-      <c r="H27">
+      <c r="G28">
+        <v>3150</v>
+      </c>
+      <c r="H28">
+        <v>3150</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="6"/>
         <v>9.0517241379310338</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>113</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F29" t="s">
         <v>25</v>
       </c>
-      <c r="F28">
+      <c r="G29">
         <v>6300</v>
       </c>
-      <c r="G28">
+      <c r="H29">
         <v>450</v>
       </c>
-      <c r="H28">
+      <c r="I29">
         <f t="shared" si="6"/>
         <v>1.2931034482758621</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>4</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>6</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <f t="shared" si="7"/>
         <v>57</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E30" t="s">
         <v>31</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F30" t="s">
         <v>25</v>
       </c>
-      <c r="F29">
+      <c r="G30">
         <v>450</v>
       </c>
-      <c r="G29">
+      <c r="H30">
         <v>6300</v>
       </c>
-      <c r="H29">
+      <c r="I30">
         <f t="shared" si="6"/>
         <v>18.103448275862068</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>4</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>53</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E31" t="s">
         <v>32</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>25</v>
       </c>
-      <c r="F30">
-        <v>3150</v>
-      </c>
-      <c r="G30">
-        <v>3150</v>
-      </c>
-      <c r="H30">
+      <c r="G31">
+        <v>3150</v>
+      </c>
+      <c r="H31">
+        <v>3150</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="6"/>
         <v>9.0517241379310338</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>4</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>91</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <f t="shared" si="7"/>
         <v>67</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E32" t="s">
         <v>33</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F32" t="s">
         <v>25</v>
       </c>
-      <c r="F31">
+      <c r="G32">
         <v>6300</v>
       </c>
-      <c r="G31">
+      <c r="H32">
         <v>450</v>
       </c>
-      <c r="H31">
+      <c r="I32">
         <f t="shared" si="6"/>
         <v>1.2931034482758621</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>4</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>65</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E33" t="s">
         <v>34</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F33" t="s">
         <v>25</v>
       </c>
-      <c r="F32">
-        <v>4800</v>
-      </c>
-      <c r="G32">
-        <v>1350</v>
-      </c>
-      <c r="H32">
+      <c r="G33">
+        <v>4800</v>
+      </c>
+      <c r="H33">
+        <v>1350</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="6"/>
         <v>3.8793103448275863</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>4</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>22</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E34" t="s">
         <v>35</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F34" t="s">
         <v>25</v>
       </c>
-      <c r="F33">
-        <v>1350</v>
-      </c>
-      <c r="G33">
-        <v>4800</v>
-      </c>
-      <c r="H33">
+      <c r="G34">
+        <v>1350</v>
+      </c>
+      <c r="H34">
+        <v>4800</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="6"/>
         <v>13.793103448275861</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>4</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>41</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E35" t="s">
         <v>36</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F35" t="s">
         <v>25</v>
       </c>
-      <c r="F34">
-        <v>1350</v>
-      </c>
-      <c r="G34">
-        <v>4800</v>
-      </c>
-      <c r="H34">
+      <c r="G35">
+        <v>1350</v>
+      </c>
+      <c r="H35">
+        <v>4800</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="6"/>
         <v>13.793103448275861</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>4</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>88</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E36" t="s">
         <v>37</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="F35">
+      <c r="G36">
         <v>6300</v>
       </c>
-      <c r="G35">
+      <c r="H36">
         <v>450</v>
       </c>
-      <c r="H35">
+      <c r="I36">
         <f t="shared" si="6"/>
         <v>1.2931034482758621</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>5</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>89</v>
       </c>
-      <c r="C36">
-        <f>ROUNDUP(H36,0)</f>
+      <c r="C37">
+        <f>ROUNDUP(I37,0)</f>
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E37" t="s">
         <v>39</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F37" t="s">
         <v>38</v>
       </c>
-      <c r="F36">
+      <c r="G37">
         <v>6300</v>
       </c>
-      <c r="G36">
+      <c r="H37">
         <v>450</v>
       </c>
-      <c r="H36">
+      <c r="I37">
         <f t="shared" si="6"/>
         <v>1.2931034482758621</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37">
-        <v>64</v>
-      </c>
-      <c r="C37">
-        <f>C36+ROUND(H37,0)</f>
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37">
-        <v>4800</v>
-      </c>
-      <c r="G37">
-        <v>1350</v>
-      </c>
-      <c r="H37">
-        <f>100*G37/19350</f>
-        <v>6.9767441860465116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:C42" si="8">C37+ROUND(H38,0)</f>
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>41</v>
+        <f>C37+ROUND(I38,0)</f>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" t="s">
         <v>38</v>
       </c>
-      <c r="F38">
-        <v>3150</v>
-      </c>
       <c r="G38">
-        <v>3150</v>
+        <v>4800</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H56" si="9">100*G38/19350</f>
-        <v>16.279069767441861</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+      <c r="I38">
+        <f>100*H38/19350</f>
+        <v>6.9767441860465116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
       <c r="B39">
+        <v>69</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C43" si="8">C38+ROUND(I39,0)</f>
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39">
+        <v>3150</v>
+      </c>
+      <c r="H39">
+        <v>3150</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:I43" si="9">100*H39/19350</f>
+        <v>16.279069767441861</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
         <v>73</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E40" t="s">
         <v>42</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F40" t="s">
         <v>38</v>
       </c>
-      <c r="F39">
-        <v>4800</v>
-      </c>
-      <c r="G39">
-        <v>1350</v>
-      </c>
-      <c r="H39">
+      <c r="G40">
+        <v>4800</v>
+      </c>
+      <c r="H40">
+        <v>1350</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="9"/>
         <v>6.9767441860465116</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>5</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>8</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E41" t="s">
         <v>43</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F41" t="s">
         <v>38</v>
       </c>
-      <c r="F40">
+      <c r="G41">
         <v>450</v>
       </c>
-      <c r="G40">
+      <c r="H41">
         <v>6300</v>
       </c>
-      <c r="H40">
+      <c r="I41">
         <f t="shared" si="9"/>
         <v>32.558139534883722</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>5</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>1</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E42" t="s">
         <v>44</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F42" t="s">
         <v>38</v>
       </c>
-      <c r="F41">
+      <c r="G42">
         <v>450</v>
       </c>
-      <c r="G41">
+      <c r="H42">
         <v>6300</v>
       </c>
-      <c r="H41">
+      <c r="I42">
         <f t="shared" si="9"/>
         <v>32.558139534883722</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>5</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>97</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E43" t="s">
         <v>45</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F43" t="s">
         <v>38</v>
       </c>
-      <c r="F42">
+      <c r="G43">
         <v>6300</v>
       </c>
-      <c r="G42">
+      <c r="H43">
         <v>450</v>
       </c>
-      <c r="H42">
+      <c r="I43">
         <f t="shared" si="9"/>
         <v>2.3255813953488373</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>66</v>
-      </c>
-      <c r="C43">
-        <f>ROUND(H43,0)</f>
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43">
-        <v>4800</v>
-      </c>
-      <c r="G43">
-        <v>1350</v>
-      </c>
-      <c r="H43">
-        <f>100*G43/41250</f>
-        <v>3.2727272727272729</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
       <c r="B44">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C44">
-        <f>C43+ROUND(H44,0)</f>
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>48</v>
+        <f>ROUND(I44,0)</f>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
         <v>46</v>
       </c>
-      <c r="F44">
-        <v>6300</v>
-      </c>
       <c r="G44">
-        <v>450</v>
+        <v>4800</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44:H64" si="10">100*G44/41250</f>
-        <v>1.0909090909090908</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+      <c r="I44">
+        <f>100*H44/41250</f>
+        <v>3.2727272727272729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
       <c r="B45">
+        <v>98</v>
+      </c>
+      <c r="C45">
+        <f>C44+ROUND(I45,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45">
+        <v>6300</v>
+      </c>
+      <c r="H45">
+        <v>450</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:I57" si="10">100*H45/41250</f>
+        <v>1.0909090909090908</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
         <v>35</v>
       </c>
-      <c r="C45">
-        <f t="shared" ref="C45:C56" si="11">C44+ROUND(H45,0)</f>
+      <c r="C46">
+        <f t="shared" ref="C46:C56" si="11">C45+ROUND(I46,0)</f>
         <v>16</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E46" t="s">
         <v>49</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F46" t="s">
         <v>46</v>
       </c>
-      <c r="F45">
-        <v>1350</v>
-      </c>
-      <c r="G45">
-        <v>4800</v>
-      </c>
-      <c r="H45">
+      <c r="G46">
+        <v>1350</v>
+      </c>
+      <c r="H46">
+        <v>4800</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="10"/>
         <v>11.636363636363637</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>6</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>99</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E47" t="s">
         <v>50</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F47" t="s">
         <v>46</v>
       </c>
-      <c r="F46">
+      <c r="G47">
         <v>6300</v>
       </c>
-      <c r="G46">
+      <c r="H47">
         <v>450</v>
       </c>
-      <c r="H46">
+      <c r="I47">
         <f t="shared" si="10"/>
         <v>1.0909090909090908</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>6</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>36</v>
       </c>
-      <c r="C47">
-        <f>C46+ROUNDDOWN(H47,0)</f>
+      <c r="C48">
+        <f>C47+ROUNDDOWN(I48,0)</f>
         <v>24</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E48" t="s">
         <v>51</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F48" t="s">
         <v>46</v>
       </c>
-      <c r="F47">
-        <v>3150</v>
-      </c>
-      <c r="G47">
-        <v>3150</v>
-      </c>
-      <c r="H47">
+      <c r="G48">
+        <v>3150</v>
+      </c>
+      <c r="H48">
+        <v>3150</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="10"/>
         <v>7.6363636363636367</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>6</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>63</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E49" t="s">
         <v>52</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F49" t="s">
         <v>46</v>
       </c>
-      <c r="F48">
-        <v>3150</v>
-      </c>
-      <c r="G48">
-        <v>3150</v>
-      </c>
-      <c r="H48">
+      <c r="G49">
+        <v>3150</v>
+      </c>
+      <c r="H49">
+        <v>3150</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="10"/>
         <v>7.6363636363636367</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>6</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>7</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E50" t="s">
         <v>53</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F50" t="s">
         <v>46</v>
       </c>
-      <c r="F49">
-        <v>1350</v>
-      </c>
-      <c r="G49">
-        <v>4800</v>
-      </c>
-      <c r="H49">
+      <c r="G50">
+        <v>1350</v>
+      </c>
+      <c r="H50">
+        <v>4800</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="10"/>
         <v>11.636363636363637</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>6</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>18</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E51" t="s">
         <v>54</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F51" t="s">
         <v>46</v>
       </c>
-      <c r="F50">
-        <v>1350</v>
-      </c>
-      <c r="G50">
-        <v>4800</v>
-      </c>
-      <c r="H50">
+      <c r="G51">
+        <v>1350</v>
+      </c>
+      <c r="H51">
+        <v>4800</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="10"/>
         <v>11.636363636363637</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>6</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>4</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <f t="shared" si="11"/>
         <v>68</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E52" t="s">
         <v>55</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F52" t="s">
         <v>46</v>
       </c>
-      <c r="F51">
-        <v>1350</v>
-      </c>
-      <c r="G51">
-        <v>4800</v>
-      </c>
-      <c r="H51">
+      <c r="G52">
+        <v>1350</v>
+      </c>
+      <c r="H52">
+        <v>4800</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="10"/>
         <v>11.636363636363637</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>6</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>61</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E53" t="s">
         <v>56</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F53" t="s">
         <v>46</v>
       </c>
-      <c r="F52">
-        <v>4800</v>
-      </c>
-      <c r="G52">
-        <v>1350</v>
-      </c>
-      <c r="H52">
+      <c r="G53">
+        <v>4800</v>
+      </c>
+      <c r="H53">
+        <v>1350</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="10"/>
         <v>3.2727272727272729</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>6</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>82</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <f t="shared" si="11"/>
         <v>74</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E54" t="s">
         <v>57</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F54" t="s">
         <v>46</v>
       </c>
-      <c r="F53">
-        <v>4800</v>
-      </c>
-      <c r="G53">
-        <v>1350</v>
-      </c>
-      <c r="H53">
+      <c r="G54">
+        <v>4800</v>
+      </c>
+      <c r="H54">
+        <v>1350</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="10"/>
         <v>3.2727272727272729</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>6</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>58</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <f t="shared" si="11"/>
         <v>82</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E55" t="s">
         <v>58</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F55" t="s">
         <v>46</v>
       </c>
-      <c r="F54">
-        <v>3150</v>
-      </c>
-      <c r="G54">
-        <v>3150</v>
-      </c>
-      <c r="H54">
+      <c r="G55">
+        <v>3150</v>
+      </c>
+      <c r="H55">
+        <v>3150</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="10"/>
         <v>7.6363636363636367</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>6</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>56</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <f t="shared" si="11"/>
         <v>85</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E56" t="s">
         <v>59</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F56" t="s">
         <v>46</v>
       </c>
-      <c r="F55">
-        <v>4800</v>
-      </c>
-      <c r="G55">
-        <v>1350</v>
-      </c>
-      <c r="H55">
+      <c r="G56">
+        <v>4800</v>
+      </c>
+      <c r="H56">
+        <v>1350</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="10"/>
         <v>3.2727272727272729</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>6</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>17</v>
       </c>
-      <c r="C56">
-        <f>C55+ROUND(H56,0)</f>
+      <c r="C57">
+        <f>C56+ROUND(I57,0)</f>
         <v>100</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E57" t="s">
         <v>60</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F57" t="s">
         <v>46</v>
       </c>
-      <c r="F56">
+      <c r="G57">
         <v>450</v>
       </c>
-      <c r="G56">
+      <c r="H57">
         <v>6300</v>
       </c>
-      <c r="H56">
+      <c r="I57">
         <f t="shared" si="10"/>
         <v>15.272727272727273</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>7</v>
-      </c>
-      <c r="B57">
-        <v>67</v>
-      </c>
-      <c r="C57">
-        <f>ROUND(H57,0)</f>
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57">
-        <v>4800</v>
-      </c>
-      <c r="G57">
-        <v>1350</v>
-      </c>
-      <c r="H57">
-        <f>100*G57/11700</f>
-        <v>11.538461538461538</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
       <c r="B58">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C58">
-        <f>C57+ROUND(H58,0)</f>
-        <v>39</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1</v>
+        <f>ROUND(I58,0)</f>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" t="s">
         <v>61</v>
       </c>
-      <c r="F58">
-        <v>3150</v>
-      </c>
       <c r="G58">
-        <v>3150</v>
+        <v>4800</v>
       </c>
       <c r="H58">
-        <f t="shared" ref="H58:H71" si="12">100*G58/11700</f>
-        <v>26.923076923076923</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+      <c r="I58">
+        <f>100*H58/11700</f>
+        <v>11.538461538461538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
       <c r="B59">
+        <v>37</v>
+      </c>
+      <c r="C59">
+        <f>C58+ROUND(I59,0)</f>
+        <v>39</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59">
+        <v>3150</v>
+      </c>
+      <c r="H59">
+        <v>3150</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59:I65" si="12">100*H59/11700</f>
+        <v>26.923076923076923</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
         <v>47</v>
       </c>
-      <c r="C59">
-        <f t="shared" ref="C59:C64" si="13">C58+ROUND(H59,0)</f>
+      <c r="C60">
+        <f t="shared" ref="C60:C63" si="13">C59+ROUND(I60,0)</f>
         <v>51</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E60" t="s">
         <v>63</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F60" t="s">
         <v>61</v>
       </c>
-      <c r="F59">
-        <v>4800</v>
-      </c>
-      <c r="G59">
-        <v>1350</v>
-      </c>
-      <c r="H59">
+      <c r="G60">
+        <v>4800</v>
+      </c>
+      <c r="H60">
+        <v>1350</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="12"/>
         <v>11.538461538461538</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>7</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>40</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <f t="shared" si="13"/>
         <v>78</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E61" t="s">
         <v>2</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F61" t="s">
         <v>61</v>
       </c>
-      <c r="F60">
-        <v>3150</v>
-      </c>
-      <c r="G60">
-        <v>3150</v>
-      </c>
-      <c r="H60">
+      <c r="G61">
+        <v>3150</v>
+      </c>
+      <c r="H61">
+        <v>3150</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="12"/>
         <v>26.923076923076923</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>7</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>100</v>
       </c>
-      <c r="C61">
-        <f>C60+ROUNDDOWN(H61,0)</f>
+      <c r="C62">
+        <f>C61+ROUNDDOWN(I62,0)</f>
         <v>81</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E62" t="s">
         <v>64</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F62" t="s">
         <v>61</v>
       </c>
-      <c r="F61">
+      <c r="G62">
         <v>6300</v>
       </c>
-      <c r="G61">
+      <c r="H62">
         <v>450</v>
       </c>
-      <c r="H61">
+      <c r="I62">
         <f t="shared" si="12"/>
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>7</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>77</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <f t="shared" si="13"/>
         <v>93</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E63" t="s">
         <v>65</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F63" t="s">
         <v>61</v>
       </c>
-      <c r="F62">
-        <v>4800</v>
-      </c>
-      <c r="G62">
-        <v>1350</v>
-      </c>
-      <c r="H62">
+      <c r="G63">
+        <v>4800</v>
+      </c>
+      <c r="H63">
+        <v>1350</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="12"/>
         <v>11.538461538461538</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>7</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>109</v>
       </c>
-      <c r="C63">
-        <f>C62+ROUND(H63,0)</f>
+      <c r="C64">
+        <f>C63+ROUND(I64,0)</f>
         <v>97</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E64" t="s">
         <v>66</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F64" t="s">
         <v>61</v>
       </c>
-      <c r="F63">
+      <c r="G64">
         <v>6300</v>
       </c>
-      <c r="G63">
+      <c r="H64">
         <v>450</v>
       </c>
-      <c r="H63">
+      <c r="I64">
         <f t="shared" si="12"/>
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>7</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>92</v>
       </c>
-      <c r="C64">
-        <f>C63+ROUNDDOWN(H64,0)</f>
+      <c r="C65">
+        <f>C64+ROUNDDOWN(I65,0)</f>
         <v>100</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E65" t="s">
         <v>7</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F65" t="s">
         <v>61</v>
       </c>
-      <c r="F64">
+      <c r="G65">
         <v>6300</v>
       </c>
-      <c r="G64">
+      <c r="H65">
         <v>450</v>
       </c>
-      <c r="H64">
+      <c r="I65">
         <f t="shared" si="12"/>
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>8</v>
-      </c>
-      <c r="B65">
-        <v>35</v>
-      </c>
-      <c r="C65">
-        <f>ROUND(H65,0)</f>
-        <v>21</v>
-      </c>
-      <c r="D65" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F65">
-        <v>1350</v>
-      </c>
-      <c r="G65">
-        <v>4800</v>
-      </c>
-      <c r="H65">
-        <f>100*G65/23100</f>
-        <v>20.779220779220779</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
       <c r="B66">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C66">
-        <f>C65+ROUND(H66,0)</f>
-        <v>42</v>
-      </c>
-      <c r="D66" t="s">
-        <v>54</v>
+        <f>ROUND(I66,0)</f>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" t="s">
         <v>67</v>
       </c>
-      <c r="F66">
-        <v>1350</v>
-      </c>
       <c r="G66">
-        <v>4800</v>
+        <v>1350</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H71" si="14">100*G66/23100</f>
+        <v>4800</v>
+      </c>
+      <c r="I66">
+        <f>100*H66/23100</f>
         <v>20.779220779220779</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
       <c r="B67">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <f>C66+ROUND(I67,0)</f>
+        <v>42</v>
+      </c>
+      <c r="E67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67">
+        <v>1350</v>
+      </c>
+      <c r="H67">
+        <v>4800</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I72" si="14">100*H67/23100</f>
+        <v>20.779220779220779</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
         <v>20</v>
       </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C71" si="15">C66+ROUND(H67,0)</f>
+      <c r="C68">
+        <f t="shared" ref="C68:C72" si="15">C67+ROUND(I68,0)</f>
         <v>56</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E68" t="s">
         <v>68</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F68" t="s">
         <v>67</v>
       </c>
-      <c r="F67">
-        <v>3150</v>
-      </c>
-      <c r="G67">
-        <v>3150</v>
-      </c>
-      <c r="H67">
+      <c r="G68">
+        <v>3150</v>
+      </c>
+      <c r="H68">
+        <v>3150</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="14"/>
         <v>13.636363636363637</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>8</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>58</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E69" t="s">
         <v>58</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F69" t="s">
         <v>67</v>
       </c>
-      <c r="F68">
-        <v>3150</v>
-      </c>
-      <c r="G68">
-        <v>3150</v>
-      </c>
-      <c r="H68">
+      <c r="G69">
+        <v>3150</v>
+      </c>
+      <c r="H69">
+        <v>3150</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="14"/>
         <v>13.636363636363637</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>8</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>90</v>
       </c>
-      <c r="C69">
-        <f>C68+ROUNDDOWN(H69,0)</f>
+      <c r="C70">
+        <f>C69+ROUNDDOWN(I70,0)</f>
         <v>71</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E70" t="s">
         <v>69</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F70" t="s">
         <v>67</v>
       </c>
-      <c r="F69">
+      <c r="G70">
         <v>6300</v>
       </c>
-      <c r="G69">
+      <c r="H70">
         <v>450</v>
       </c>
-      <c r="H69">
+      <c r="I70">
         <f t="shared" si="14"/>
         <v>1.948051948051948</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>8</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>17</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <f t="shared" si="15"/>
         <v>98</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E71" t="s">
         <v>60</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F71" t="s">
         <v>67</v>
       </c>
-      <c r="F70">
+      <c r="G71">
         <v>450</v>
       </c>
-      <c r="G70">
+      <c r="H71">
         <v>6300</v>
       </c>
-      <c r="H70">
+      <c r="I71">
         <f t="shared" si="14"/>
         <v>27.272727272727273</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>8</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>112</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E72" t="s">
         <v>70</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F72" t="s">
         <v>67</v>
       </c>
-      <c r="F71">
+      <c r="G72">
         <v>6300</v>
       </c>
-      <c r="G71">
+      <c r="H72">
         <v>450</v>
       </c>
-      <c r="H71">
+      <c r="I72">
         <f t="shared" si="14"/>
         <v>1.948051948051948</v>
       </c>
